--- a/光伏发电/2021年白云寺镇光伏收支明细表.xlsx
+++ b/光伏发电/2021年白云寺镇光伏收支明细表.xlsx
@@ -12,15 +12,15 @@
     <sheet name="湾子" sheetId="3" r:id="rId3"/>
     <sheet name="石北" sheetId="4" r:id="rId4"/>
     <sheet name="石南" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="小浑子" sheetId="6" r:id="rId6"/>
+    <sheet name="柏木岗" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>2021年白云寺镇青行村委光伏发电收支明细表</t>
   </si>
@@ -107,6 +107,36 @@
   </si>
   <si>
     <t>支村内游园建设光伏资金</t>
+  </si>
+  <si>
+    <t>支小浑子刘庄南侧道路硬化及垫土方</t>
+  </si>
+  <si>
+    <t>4月19号</t>
+  </si>
+  <si>
+    <t>支2021年1-3月份临时工工资</t>
+  </si>
+  <si>
+    <t>支绿化树栽植</t>
+  </si>
+  <si>
+    <t>支文化广场占地地租</t>
+  </si>
+  <si>
+    <t>支临时性公益岗位工资</t>
+  </si>
+  <si>
+    <t>2月3号</t>
+  </si>
+  <si>
+    <t>支坑塘平整</t>
+  </si>
+  <si>
+    <t>光伏资金修复道路</t>
+  </si>
+  <si>
+    <t>支公益性岗位保洁员工资</t>
   </si>
 </sst>
 </file>
@@ -114,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -129,55 +159,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,25 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,9 +196,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,30 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,37 +312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +336,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,25 +366,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,31 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,19 +450,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,21 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -520,8 +535,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,11 +556,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +591,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,21 +618,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -596,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2355,7 +2385,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:F24"/>
+      <selection activeCell="F18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2678,14 +2708,336 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="38" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:6">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>32400</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44244</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:6">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <v>31800</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:6">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
+        <v>9060</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44306</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
+        <v>21400</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44306</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:6">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:6">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>128092.54</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44210</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:6">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>65003.92</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44222</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:6">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>13936.99</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44216</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:6">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30662.42</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44272</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:6">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>22473.73</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44308</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:6">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:6">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:6">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" ht="27" customHeight="1" spans="1:6">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:6">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:6">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:6">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:6">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:6">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:6">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4">
+        <f>SUM(B3:B23)</f>
+        <v>260169.6</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4">
+        <f>SUM(D3:D23)</f>
+        <v>94660</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2694,14 +3046,336 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.5" style="2"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="38" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:6">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>45600</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44215</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:6">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <v>40025</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:6">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
+        <v>16000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44279</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
+        <v>30400</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44306</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:6">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:6">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>128092.54</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44210</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:6">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>65003.92</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44222</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:6">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>13936.99</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44216</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:6">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30662.42</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44272</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:6">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>22473.73</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44308</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:6">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:6">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:6">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" ht="27" customHeight="1" spans="1:6">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:6">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:6">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:6">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:6">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:6">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:6">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4">
+        <f>SUM(B3:B23)</f>
+        <v>260169.6</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4">
+        <f>SUM(D3:D23)</f>
+        <v>132025</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/光伏发电/2021年白云寺镇光伏收支明细表.xlsx
+++ b/光伏发电/2021年白云寺镇光伏收支明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="青行" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="53">
   <si>
     <t>2021年白云寺镇青行村委光伏发电收支明细表</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>2021年第一季度2021.1-2021.3</t>
+  </si>
+  <si>
+    <t>2021年第二季度</t>
   </si>
   <si>
     <t>合计</t>
@@ -183,11 +186,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -214,14 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +225,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,14 +240,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +276,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -312,21 +300,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -341,6 +323,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,49 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +378,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,79 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,25 +480,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,24 +632,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,8 +644,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +664,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,8 +1175,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1427,11 +1430,17 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5">
+        <v>26398.92</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44392</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:7">
@@ -1535,11 +1544,11 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <f>SUM(B3,B4:B23)</f>
-        <v>254142.72</v>
+        <v>280541.64</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5">
@@ -1565,7 +1574,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1580,7 +1589,7 @@
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
@@ -1624,7 +1633,7 @@
         <v>44229</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>8</v>
@@ -1643,7 +1652,7 @@
         <v>44229</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>8</v>
@@ -1662,10 +1671,10 @@
         <v>44344</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:7">
@@ -1779,11 +1788,17 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5">
+        <v>25727.99</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44392</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:7">
@@ -1887,11 +1902,11 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <f>SUM(B3,B4:B22)</f>
-        <v>230933.35</v>
+        <v>256661.34</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5">
@@ -1917,7 +1932,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1932,7 +1947,7 @@
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
@@ -1976,7 +1991,7 @@
         <v>44229</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>8</v>
@@ -1995,7 +2010,7 @@
         <v>44356</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>8</v>
@@ -2012,7 +2027,7 @@
         <v>44356</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>8</v>
@@ -2031,7 +2046,7 @@
         <v>44357</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>8</v>
@@ -2148,11 +2163,17 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5">
+        <v>26373.24</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44392</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:7">
@@ -2256,11 +2277,11 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <f>SUM(B3,B4:B23)</f>
-        <v>264162.98</v>
+        <v>290536.22</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5">
@@ -2286,7 +2307,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2302,7 +2323,7 @@
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
@@ -2346,7 +2367,7 @@
         <v>44209</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
@@ -2365,7 +2386,7 @@
         <v>44229</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -2384,7 +2405,7 @@
         <v>44341</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>8</v>
@@ -2403,10 +2424,10 @@
         <v>44341</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
@@ -2503,11 +2524,17 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5">
+        <v>26814.34</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44392</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:6">
       <c r="A14" s="4">
@@ -2601,11 +2628,11 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <f>SUM(B8:B22)</f>
-        <v>253327.03</v>
+        <v>280141.37</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5">
@@ -2630,7 +2657,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2646,7 +2673,7 @@
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
@@ -2690,7 +2717,7 @@
         <v>44209</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
@@ -2706,10 +2733,10 @@
         <v>28000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -2839,11 +2866,17 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5">
+        <v>26500.91</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44392</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:6">
       <c r="A15" s="4">
@@ -2937,11 +2970,11 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <f>SUM(B3:B23)</f>
-        <v>253394.17</v>
+        <v>279895.08</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5">
@@ -2965,8 +2998,8 @@
   <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2982,7 +3015,7 @@
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
@@ -3026,7 +3059,7 @@
         <v>44244</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>8</v>
@@ -3042,13 +3075,13 @@
         <v>31800</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:7">
@@ -3064,7 +3097,7 @@
         <v>44306</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>8</v>
@@ -3083,7 +3116,7 @@
         <v>44306</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>8</v>
@@ -3193,11 +3226,17 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5">
+        <v>25779.19</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44392</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:6">
       <c r="A15" s="4">
@@ -3291,11 +3330,11 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <f>SUM(B3:B23)</f>
-        <v>260169.6</v>
+        <v>285948.79</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5">
@@ -3320,7 +3359,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3336,7 +3375,7 @@
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
@@ -3380,7 +3419,7 @@
         <v>44215</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
@@ -3396,10 +3435,10 @@
         <v>40025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -3418,7 +3457,7 @@
         <v>44279</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>8</v>
@@ -3437,10 +3476,10 @@
         <v>44306</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:7">
@@ -3453,10 +3492,10 @@
         <v>40000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>8</v>
@@ -3475,10 +3514,10 @@
         <v>44370</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:7">
@@ -3570,11 +3609,17 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5">
+        <v>26033.92</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44392</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:7">
@@ -3678,11 +3723,11 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <f>SUM(B3:B23)</f>
-        <v>260169.6</v>
+        <v>286203.52</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5">
